--- a/TEL 780/Reflections.xlsx
+++ b/TEL 780/Reflections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karabrick/Desktop/CPP527/CV.io/TEL 780/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028450DB-E3E2-764C-943F-49AB73B23AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3EA459-3802-E640-891F-888A94A7DD8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16180" activeTab="1" xr2:uid="{8A293CD8-45D5-B147-BA45-F083868BFF6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A293CD8-45D5-B147-BA45-F083868BFF6B}"/>
   </bookViews>
   <sheets>
     <sheet name="December Workshop Reflections" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="262">
-  <si>
-    <t>1 What did you learn today?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Few of the things that I learn today as follow: a) mental health is not all about madness. It can be cause by many factors social, economic, etc. I also learn about addiction, I got to know that addiction is not just about drug or alcohol but other things that we make as habit. </t>
   </si>
@@ -96,9 +93,6 @@
     <t>I learned about the breadth of the nervous system and how to take care of mad people. </t>
   </si>
   <si>
-    <t>2 How does this apply to your teaching?</t>
-  </si>
-  <si>
     <t>As a teacher having learned these things I am going to apply it in the class with my students. That is tell them the danger of addiction and also educate them about mental health.</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>by knowing how to teach my students well and how to meet people around me. </t>
   </si>
   <si>
-    <t>3 Why do you teach?</t>
-  </si>
-  <si>
     <t>I teach to transform lives, that is impacting knowledge in my students in order to become good citizens in this society.</t>
   </si>
   <si>
@@ -207,15 +198,6 @@
     <t>To make people know how to read and write and to help make a new Libera. </t>
   </si>
   <si>
-    <t>December 3rd 2018</t>
-  </si>
-  <si>
-    <t>December 3rd 2019</t>
-  </si>
-  <si>
-    <t>December 3rd 2020</t>
-  </si>
-  <si>
     <t>Going to apply to my teaching in the classrooom by during dissection in my classroom during my lab section.</t>
   </si>
   <si>
@@ -300,9 +282,6 @@
     <t>I teach because teaching is my area of specialization. </t>
   </si>
   <si>
-    <t>1 What did you learn today?1</t>
-  </si>
-  <si>
     <t>learn how to dissect a sheep brain, identified the parts of the brain (3 main parts) which cerebellum, which is the small brain, contains 4 lobes; the frontal lobe, parietal lobe, occipital love and temporal lobe, for auditory information and forming new membrane. Also learn that the brain is divided into right and left hemisphere, and the hippocampus for short term memory with the cerebral cortex for long term memory. </t>
   </si>
   <si>
@@ -360,24 +339,6 @@
     <t>I learned about the function and dissection of a sheep brain. It has the frontal lobe, parietal lobe, occipital lobe and temporal lobe. The gyri being the work like structure and the sulci being line on the brian. I also learned about the cause of stress for students and how to bring a stop to that. </t>
   </si>
   <si>
-    <t>December 4th 2019</t>
-  </si>
-  <si>
-    <t>December 4th 2020</t>
-  </si>
-  <si>
-    <t>December 4th 2021</t>
-  </si>
-  <si>
-    <t>December 5th, 2018</t>
-  </si>
-  <si>
-    <t>December 5th, 2019</t>
-  </si>
-  <si>
-    <t>December 5th, 2020</t>
-  </si>
-  <si>
     <t>I learned about neuroscience, life sciences that deals with anatomy, physiology, biochemistry or molecular biology of nerves and nervous tissue and especially with their relation to behavior and learning. I learned about synapse pre-synaptic and post-synaptic, especially neurotransmitter how it relates potential change. </t>
   </si>
   <si>
@@ -495,9 +456,6 @@
     <t>It make me to improve my student learning. </t>
   </si>
   <si>
-    <t>3 How will you respond to students who have learning difficulties?</t>
-  </si>
-  <si>
     <t>I create room to motivate my students such as class participation, group work, individual work. </t>
   </si>
   <si>
@@ -687,15 +645,6 @@
     <t>To always call them and advise them to take their lesson serious. </t>
   </si>
   <si>
-    <t>December 6th, 2018</t>
-  </si>
-  <si>
-    <t>December 6th, 2019</t>
-  </si>
-  <si>
-    <t>December 6th, 2020</t>
-  </si>
-  <si>
     <t>Since the training, started using group projects and group presentations. Noticed that dealing with children who misbehave by explaining the purpose of activities has resulted in changes in behavior. Students have started passing his classes a lot more since the training, because every topic has activities associated with it, to give it a hands on aspect. More examples of hands-on activities would be useful for this teacher. Keeping up with individual grades and assessments with the large number of students has been a challenge, and the 45 minute periods are not long enough. </t>
   </si>
   <si>
@@ -819,7 +768,145 @@
     <t>March 23rd -The Carter Center</t>
   </si>
   <si>
-    <t>April 6th Kakata</t>
+    <t>Weaknesses: rigidity before the BrainU training</t>
+  </si>
+  <si>
+    <t>Difficult at the beginning applying BrainU techniques/methodologies/stragtegies and pedagogies</t>
+  </si>
+  <si>
+    <t>Gradual positive changes for both students and teachers</t>
+  </si>
+  <si>
+    <t>Teacher should be able to inspire students in a particular course</t>
+  </si>
+  <si>
+    <t>We have taugh generally in the past (arts and science courses) and for a short itme</t>
+  </si>
+  <si>
+    <t>overloaded classes. No career counsellors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weaknesses: kindness/leniancy </t>
+  </si>
+  <si>
+    <t>drugged students</t>
+  </si>
+  <si>
+    <t>school should invite trouble-shooting students</t>
+  </si>
+  <si>
+    <t>sending students home for lateness</t>
+  </si>
+  <si>
+    <t>sometimes equal yourself with students</t>
+  </si>
+  <si>
+    <t>challenges: 60-65 students, 6 sections, 1 teacher</t>
+  </si>
+  <si>
+    <t>teachers teach incomplete lesson plans</t>
+  </si>
+  <si>
+    <t>weakness: I never made my class interactive/student-centered</t>
+  </si>
+  <si>
+    <t>applying BrainU techniques challenged by students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teachers should punish students right in the classroom </t>
+  </si>
+  <si>
+    <t>love and draw them closer to you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharing brainU techniques with my school's administration and teachers </t>
+  </si>
+  <si>
+    <t>Challenges: administraion oversee every activity of the school</t>
+  </si>
+  <si>
+    <t>Challenges - outrightly obeying private schools policies</t>
+  </si>
+  <si>
+    <t>Challeges - Parents themselves don’t spend much time with their children. Out arts and culture, music, drama and movies all help to spoil the minds of our children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment- thanked the carter center </t>
+  </si>
+  <si>
+    <t>Environment- "I predominated my class before BrainU Training. It's different now"</t>
+  </si>
+  <si>
+    <t>Environment - including activities in my class- ice breaking, etc.</t>
+  </si>
+  <si>
+    <t>April 6th / 20th Kakata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggles with administration concerning stigmatizing students with mental illness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggles with studen on drugs, administration wanted to abuse the student, teacher advising student, telling him that drugs are bad and can lead to mental illness </t>
+  </si>
+  <si>
+    <t>showed him a video of a rapper talking about addiction and how it was bad</t>
+  </si>
+  <si>
+    <t>built a relationship with a female student who isolated herself from everyone. Now she is understadning and putting in time. Before the training, he used to just introduce the topic and didn't think about counseling or advising. He also advised a fellow teacher on being open to questions from students and being kind, presenting lessons well. he says the teacher has improved his teaching</t>
+  </si>
+  <si>
+    <t>started using group work, is struggling to implement hands-on activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This teacher has changed his mindset, has realized that teachers have to be interactive and present lessons that are easy to understand. He's realized that you have to identify needs within students and cater to them (his example was poor hearing). He now thinks of teaching as more than a paycheck. He thinks of himself as a counselor and a role model. He investigated a student who was failing and discovered he suffered a hearing problem and now the student is doing much better in school. He got to know this student because of methods he learned at the workshop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This teacher has stopped putting students out of class. He now "bring students closer" or building relationships with them. He has been advising his peers and administration about punishing students too harshly and has now been dubbed the "guidance counselor" of the school.Things are different now at his school. Students are more often treated with advisement, rather than punishment or put out of the class. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this teacher changed his mindset about students and how they feel about school. He built a relationship with his class and doesn't think of his students as rude. He convinced his administration to have a softer approach, and now he is a peacmaker in the school. He identified a student who was doing great in the first two marking perionds and then started failing. he advised and encouraged him and now the student is picking up again. He has been vocal about not taking pay for grades and has noticed teachers who are embarassed to do it in front of him. The teacher has now changed (the one who took bribes) and stopped doing it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before the training, this teacher was very rigid but now he is flexible, he considers his students feelings, whereas before his students no 'like his business'. He gradually changed so that now students like his business and have rights. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary: What are the difficulties we now face implementing the new methodologies? 1) time allotted to teach in large classes is not enough for student-centered techniques and gathering materials to use in a low resource environment. 2) Administration has a mindset that students should be put out of class and punished harshly and it can be hard to always be swimming against it. </t>
+  </si>
+  <si>
+    <t>Day 1 Learn</t>
+  </si>
+  <si>
+    <t>Day 1 Apply</t>
+  </si>
+  <si>
+    <t>Day 1 Why</t>
+  </si>
+  <si>
+    <t>Day 2 Learn</t>
+  </si>
+  <si>
+    <t>Day 2 Apply</t>
+  </si>
+  <si>
+    <t>Day 2 Why</t>
+  </si>
+  <si>
+    <t>Day 3 Learn</t>
+  </si>
+  <si>
+    <t>Day 3 Apply</t>
+  </si>
+  <si>
+    <t>Day 3 Response</t>
+  </si>
+  <si>
+    <t>Day 4 Learn</t>
+  </si>
+  <si>
+    <t>Day 4 Apply</t>
+  </si>
+  <si>
+    <t>Day 4 Response</t>
   </si>
 </sst>
 </file>
@@ -1210,890 +1297,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C338EB-F91C-D047-A3BD-DA7B4EF7F18F}">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2103,190 +2051,340 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA6CCCA-4A05-FB40-82D7-DCA4C49898E9}">
-  <dimension ref="B1:D26"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19">
+      <c r="A7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19">
+      <c r="A8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19">
+      <c r="A9" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19">
+      <c r="A10" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
+      <c r="A11" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19">
+      <c r="A12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19">
+      <c r="A13" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19">
+      <c r="A14" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19">
+      <c r="A15" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19">
+      <c r="A16" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19">
+      <c r="A17" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="19">
-      <c r="B2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="19">
-      <c r="B3" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="19">
-      <c r="B4" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="19">
-      <c r="B5" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="19">
-      <c r="B6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="19">
-      <c r="B7" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="C8" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="C9" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="C10" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="C11" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="D12" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="D14" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="D15" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="D16" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="5" t="s">
-        <v>259</v>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="5" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/TEL 780/Reflections.xlsx
+++ b/TEL 780/Reflections.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karabrick/Desktop/CPP527/CV.io/TEL 780/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3EA459-3802-E640-891F-888A94A7DD8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE64A5F-22C6-5646-AA43-0159F687091C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A293CD8-45D5-B147-BA45-F083868BFF6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{8A293CD8-45D5-B147-BA45-F083868BFF6B}"/>
   </bookViews>
   <sheets>
     <sheet name="December Workshop Reflections" sheetId="1" r:id="rId1"/>
     <sheet name="Refresher Debriefs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>Few of the things that I learn today as follow: a) mental health is not all about madness. It can be cause by many factors social, economic, etc. I also learn about addiction, I got to know that addiction is not just about drug or alcohol but other things that we make as habit. </t>
   </si>
@@ -907,13 +908,22 @@
   </si>
   <si>
     <t>Day 4 Response</t>
+  </si>
+  <si>
+    <t>code_id</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>code.description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -955,6 +965,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -976,13 +999,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1299,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C338EB-F91C-D047-A3BD-DA7B4EF7F18F}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2390,4 +2415,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B2B8E9-3D5A-EE46-A862-A749E7E094C6}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <f t="shared" ref="A5:A11" si="0">A4+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>